--- a/MARKSHEET.xlsx
+++ b/MARKSHEET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QASIM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B35285E-8DBF-4552-B78A-963CE9BFC2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D09F14-28F4-4FF5-BEC8-5B358EF0B519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12600" xr2:uid="{7FEF2525-5E99-439D-98EF-9FDA5F4F3006}"/>
   </bookViews>
@@ -151,9 +151,6 @@
     <t>VLOOKUP</t>
   </si>
   <si>
-    <t>STUDENT'S MARKSHEET</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>Sum of Average</t>
+  </si>
+  <si>
+    <t>"STUDENT'S MARKSHEET"</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,44 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -539,203 +576,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2516,26 +2356,26 @@
     <dataField name="Sum of Average" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="18">
-    <format dxfId="0">
+    <format dxfId="5">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="7">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="7">
@@ -2550,26 +2390,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="13">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="7">
@@ -2584,26 +2424,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="17">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="19">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="7">
@@ -2931,7 +2771,7 @@
   <dimension ref="B2:S66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O3"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,7 +2794,7 @@
   <sheetData>
     <row r="2" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3637,21 +3477,8 @@
     <mergeCell ref="B2:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:I14">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="between">
-      <formula>50</formula>
-      <formula>80</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
-      <formula>80</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="between">
-      <formula>50</formula>
-      <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -3687,28 +3514,28 @@
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -3973,7 +3800,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6">
         <v>609</v>

--- a/MARKSHEET.xlsx
+++ b/MARKSHEET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QASIM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D09F14-28F4-4FF5-BEC8-5B358EF0B519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ED94A6-FED8-4DBF-A888-E6E575DB3473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12600" xr2:uid="{7FEF2525-5E99-439D-98EF-9FDA5F4F3006}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Student Name</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>"STUDENT'S MARKSHEET"</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -309,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,15 +328,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -357,25 +351,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="21">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -383,13 +383,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -402,12 +395,40 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <border>
@@ -540,42 +561,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2356,26 +2341,26 @@
     <dataField name="Sum of Average" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="18">
-    <format dxfId="5">
+    <format dxfId="20">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="18">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="7">
@@ -2390,26 +2375,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="14">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="12">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="7">
@@ -2424,26 +2409,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="8">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="6">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="7">
@@ -2771,7 +2756,7 @@
   <dimension ref="B2:S66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2793,189 +2778,189 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="2:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>90</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>95</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="10">
         <v>99</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="10">
         <v>96</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="10">
         <v>38</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="10">
         <f>SUM(E5:I5)</f>
         <v>418</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="10">
         <f>AVERAGE(E5:I5)</f>
         <v>83.6</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="10">
         <f>MIN(E5:I5)</f>
         <v>38</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="10">
         <f>MAX(E5:I5)</f>
         <v>99</v>
       </c>
-      <c r="N5" s="13" t="str">
+      <c r="N5" s="10" t="str">
         <f>IF(K5&gt;=50,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="10">
         <f>COUNT(E5:I5)</f>
         <v>5</v>
       </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>29</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>53</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="10">
         <v>85</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="10">
         <v>40</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="10">
         <v>25</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="10">
         <f t="shared" ref="J6:J14" si="0">SUM(E6:I6)</f>
         <v>232</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="10">
         <f t="shared" ref="K6:K14" si="1">AVERAGE(E6:I6)</f>
         <v>46.4</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="10">
         <f t="shared" ref="L6:L14" si="2">MIN(E6:I6)</f>
         <v>25</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="10">
         <f t="shared" ref="M6:M14" si="3">MAX(E6:I6)</f>
         <v>85</v>
       </c>
-      <c r="N6" s="13" t="str">
+      <c r="N6" s="10" t="str">
         <f t="shared" ref="N6:N14" si="4">IF(K6&gt;=50,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="10">
         <f t="shared" ref="O6:O14" si="5">COUNT(E6:I6)</f>
         <v>5</v>
       </c>
@@ -2985,51 +2970,51 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>74</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>39</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="10">
         <v>94</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="10">
         <v>59</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="10">
         <v>39</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="10">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="10">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="10">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="10">
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
-      <c r="N7" s="13" t="str">
+      <c r="N7" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="10">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -3039,51 +3024,51 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>42</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <v>66</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="10">
         <v>30</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="10">
         <v>52</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="10">
         <v>52</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="10">
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="10">
         <f t="shared" si="1"/>
         <v>48.4</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="10">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="10">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="N8" s="13" t="str">
+      <c r="N8" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Fail</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="10">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -3093,51 +3078,51 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>53</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>45</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="10">
         <v>62</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="10">
         <v>44</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="10">
         <v>95</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="10">
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="10">
         <f t="shared" si="1"/>
         <v>59.8</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="10">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="10">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="N9" s="13" t="str">
+      <c r="N9" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="10">
         <f>COUNT(E9:I9)</f>
         <v>5</v>
       </c>
@@ -3147,51 +3132,51 @@
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>6</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>89</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>84</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="10">
         <v>95</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="10">
         <v>92</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="10">
         <v>47</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="10">
         <f t="shared" si="0"/>
         <v>407</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="10">
         <f t="shared" si="1"/>
         <v>81.400000000000006</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="10">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="10">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="N10" s="13" t="str">
+      <c r="N10" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="10">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -3201,51 +3186,51 @@
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <v>72</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <v>71</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="10">
         <v>38</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="10">
         <v>49</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="10">
         <v>94</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="10">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="10">
         <f t="shared" si="1"/>
         <v>64.8</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="10">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="10">
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
-      <c r="N11" s="13" t="str">
+      <c r="N11" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="10">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -3255,51 +3240,51 @@
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>8</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>39</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <v>52</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="10">
         <v>50</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="10">
         <v>40</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="10">
         <v>58</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="10">
         <f t="shared" si="0"/>
         <v>239</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="10">
         <f t="shared" si="1"/>
         <v>47.8</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="10">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="10">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="N12" s="13" t="str">
+      <c r="N12" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Fail</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="10">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -3309,51 +3294,51 @@
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>9</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>95</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="10">
         <v>90</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="13">
         <v>100</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="13">
         <v>94</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="10">
         <v>96</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="10">
         <f t="shared" si="0"/>
         <v>475</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="10">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="10">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="10">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="N13" s="13" t="str">
+      <c r="N13" s="10" t="str">
         <f>IF(K13&gt;=50,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="10">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -3363,51 +3348,51 @@
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
+      <c r="B14" s="9">
         <v>10</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <v>64</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="15">
         <v>48</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="10">
         <v>89</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="10">
         <v>97</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="16">
         <v>48</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="10">
         <f t="shared" si="0"/>
         <v>346</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="10">
         <f t="shared" si="1"/>
         <v>69.2</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="10">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="10">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="N14" s="13" t="str">
+      <c r="N14" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="10">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -3417,32 +3402,36 @@
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="14"/>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17" s="14" t="s">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G18" s="13">
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="10">
         <f>COUNTIF(N5:N14,"Pass")</f>
         <v>7</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="10">
         <f>SUMIF(J5:J14,"&gt;250",J5:J14)</f>
         <v>2574</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="10">
         <f>VLOOKUP(C11,C5:N14,3,FALSE)</f>
         <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="18:19" x14ac:dyDescent="0.25">
@@ -3477,8 +3466,11 @@
     <mergeCell ref="B2:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:I14">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+      <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
